--- a/public/app-assets/ImportSamples/8-SalesPlanAdditionalCostsImport.xlsx
+++ b/public/app-assets/ImportSamples/8-SalesPlanAdditionalCostsImport.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11400"/>
+    <workbookView windowWidth="28800" windowHeight="11745"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>unit_short_label *</t>
   </si>
@@ -40,22 +40,13 @@
     <t>total_amount *</t>
   </si>
   <si>
-    <t>GF-12</t>
+    <t>1F-01</t>
   </si>
   <si>
-    <t>1234567890123</t>
+    <t>1234567890125</t>
   </si>
   <si>
-    <t>margla-view-facings</t>
-  </si>
-  <si>
-    <t>corner-charges</t>
-  </si>
-  <si>
-    <t>GF-13</t>
-  </si>
-  <si>
-    <t>1234567890124</t>
+    <t>new-charges</t>
   </si>
 </sst>
 </file>
@@ -63,12 +54,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -102,12 +93,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DejaVu Sans"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
@@ -125,7 +110,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -139,32 +131,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -176,8 +147,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,33 +163,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,6 +207,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Arial"/>
@@ -240,28 +224,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,187 +273,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,7 +486,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,7 +495,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,21 +556,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -582,152 +567,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -735,15 +720,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="58" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -751,9 +735,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1015,13 +996,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6333333333333" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.6333333333333" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="21.25" customWidth="1"/>
     <col min="2" max="2" width="22.25" customWidth="1"/>
@@ -1052,7 +1033,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -1069,17 +1050,17 @@
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="4">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="D2" s="4">
-        <v>25</v>
-      </c>
-      <c r="E2" s="10">
-        <v>44862</v>
+        <v>2500</v>
+      </c>
+      <c r="E2" s="9">
+        <v>44859</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>10</v>
@@ -1095,69 +1076,37 @@
       <c r="K2" s="2"/>
     </row>
     <row r="3" customHeight="1" spans="1:11">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="5">
-        <v>100</v>
-      </c>
-      <c r="D3" s="6">
-        <v>25</v>
-      </c>
-      <c r="E3" s="11">
-        <v>44862</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="6">
-        <v>10</v>
-      </c>
-      <c r="H3" s="6">
-        <v>3399501</v>
-      </c>
+      <c r="A3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="2"/>
     </row>
     <row r="4" customHeight="1" spans="1:11">
-      <c r="A4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="5">
-        <v>100</v>
-      </c>
-      <c r="D4" s="6">
-        <v>25</v>
-      </c>
-      <c r="E4" s="11">
-        <v>44863</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="6">
-        <v>10</v>
-      </c>
-      <c r="H4" s="6">
-        <v>3399502</v>
-      </c>
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="2"/>
     </row>
     <row r="5" customHeight="1" spans="1:11">
-      <c r="A5" s="8"/>
+      <c r="A5" s="5"/>
       <c r="B5" s="6"/>
-      <c r="C5" s="5"/>
+      <c r="C5" s="7"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="11"/>
+      <c r="E5" s="10"/>
       <c r="F5" s="2"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -1166,11 +1115,11 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" customHeight="1" spans="1:11">
-      <c r="A6" s="8"/>
+      <c r="A6" s="5"/>
       <c r="B6" s="6"/>
-      <c r="C6" s="5"/>
+      <c r="C6" s="7"/>
       <c r="D6" s="6"/>
-      <c r="E6" s="11"/>
+      <c r="E6" s="10"/>
       <c r="F6" s="2"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
@@ -1179,11 +1128,11 @@
       <c r="K6" s="2"/>
     </row>
     <row r="7" customHeight="1" spans="1:11">
-      <c r="A7" s="8"/>
+      <c r="A7" s="5"/>
       <c r="B7" s="6"/>
-      <c r="C7" s="5"/>
+      <c r="C7" s="7"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="11"/>
+      <c r="E7" s="10"/>
       <c r="F7" s="2"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -1192,11 +1141,11 @@
       <c r="K7" s="2"/>
     </row>
     <row r="8" customHeight="1" spans="1:11">
-      <c r="A8" s="8"/>
+      <c r="A8" s="5"/>
       <c r="B8" s="6"/>
-      <c r="C8" s="5"/>
+      <c r="C8" s="7"/>
       <c r="D8" s="6"/>
-      <c r="E8" s="11"/>
+      <c r="E8" s="10"/>
       <c r="F8" s="2"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -1204,32 +1153,6 @@
       <c r="J8" s="6"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" customHeight="1" spans="1:11">
-      <c r="A9" s="8"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="2"/>
-    </row>
-    <row r="10" customHeight="1" spans="1:11">
-      <c r="A10" s="8"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="2"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
